--- a/medicine/Premiers secours et secourisme/Médecin-pompier_en_France/Médecin-pompier_en_France.xlsx
+++ b/medicine/Premiers secours et secourisme/Médecin-pompier_en_France/Médecin-pompier_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decin-pompier_en_France</t>
+          <t>Médecin-pompier_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, le médecin-pompier est un médecin du service de santé et de secours médical (SSSM) qui est une composante des services départementaux d'incendie et de secours (SDIS), de la brigade de sapeurs-pompiers de Paris (BSPP) ou du bataillon de marins-pompiers de Marseille (BMPM).
 Les médecins des SDIS sont volontaires ou professionnels et sont des agents de collectivité territoriale. Les médecins de la BSPP ou du BMPM sont militaires ou civils conventionnés.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decin-pompier_en_France</t>
+          <t>Médecin-pompier_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Missions du SSSM[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Surveillance de la condition physique des sapeurs-pompiers.
 Médecine professionnelle et d’aptitude des sapeurs-pompiers professionnels et volontaires.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decin-pompier_en_France</t>
+          <t>Médecin-pompier_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Le secours d'urgence[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les médecins et infirmiers de sapeurs-pompiers sont équipés de matériel médical. À l’occasion d’une intervention, ils peuvent intervenir seuls ou en binôme, sur l’ensemble d'un département. L’infirmier, sans la présence d’un médecin, est habilité à mettre en œuvre des protocoles de soins d’urgence.
 </t>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9decin-pompier_en_France</t>
+          <t>Médecin-pompier_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Le soutien sanitaire[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’une des missions prioritaires du SSSM est d’apporter un soutien sanitaire lors des interventions et de dispenser les soins d’urgence aux sapeurs-pompiers. Tous les jours, deux infirmiers de sapeurs-pompiers sont en garde postée dans deux casernes du département[réf. nécessaire]. Ils disposent d’un V.S.M (véhicule de secours médical) et sont accompagnés d’un équipier-conducteur. Un médecin de sapeurs-pompiers peut participer à l’intervention.
 </t>
